--- a/app/src/main/assets/IndyCarShe.xlsx
+++ b/app/src/main/assets/IndyCarShe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksawe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJEKTY\Android Studio\Motosport2\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7822FF59-5D82-4140-BCFC-3F8A53FD9851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9755E70A-5F67-4951-8EE0-DD572BA82AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -146,10 +146,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -520,17 +526,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="43.625" customWidth="1"/>
     <col min="10" max="10" width="43.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44990</v>
       </c>
@@ -564,7 +570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45018</v>
       </c>
@@ -581,7 +587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45032</v>
       </c>
@@ -598,7 +604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45046</v>
       </c>
@@ -615,7 +621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45059</v>
       </c>
@@ -632,7 +638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45074</v>
       </c>
@@ -649,7 +655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45081</v>
       </c>
@@ -666,7 +672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45095</v>
       </c>
@@ -683,7 +689,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45109</v>
       </c>
@@ -700,7 +706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45123</v>
       </c>
@@ -717,7 +723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45129</v>
       </c>
@@ -734,7 +740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45130</v>
       </c>
@@ -751,7 +757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45144</v>
       </c>
@@ -768,7 +774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45150</v>
       </c>
@@ -785,7 +791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45165</v>
       </c>
@@ -802,7 +808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45172</v>
       </c>
@@ -819,7 +825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45179</v>
       </c>
@@ -837,6 +843,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1 A19:A20 K19:K20 K2 K3 K4 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K17 K18 K1 C19:D20" numberStoredAsText="1"/>
